--- a/iselUssSyncV2/OutputWSLorientation/20220524_1348_D50L474W30Q18.0U0.34H68.0G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1348_D50L474W30Q18.0U0.34H68.0G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.44114427331651357</v>
+        <v>0.25222352916130497</v>
       </c>
       <c r="P2" s="0">
         <v>140.44791333333339</v>
@@ -356,10 +356,10 @@
         <v>1.3777940298000007</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0357533302321953</v>
+        <v>1.8115544244416149</v>
       </c>
       <c r="S2" s="0">
-        <v>0.32348619345020285</v>
+        <v>1.01296625408685</v>
       </c>
       <c r="T2" s="0">
         <v>0.037544005666178264</v>
@@ -383,16 +383,16 @@
         <v>160000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.3302337434832352</v>
+        <v>0.76055900458231362</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.2592050532508949</v>
+        <v>1.3601578771664302</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.0768849420797137</v>
+        <v>0.61570723461966659</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.4561034151698984</v>
+        <v>0.72805170758494919</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>5.3360899953306085</v>
+        <v>1.9758651117860968</v>
       </c>
     </row>
   </sheetData>
